--- a/output/ITAÚ_17329579000133.xlsx
+++ b/output/ITAÚ_17329579000133.xlsx
@@ -1417,10 +1417,10 @@
         <v>44165</v>
       </c>
       <c r="B94">
-        <v>1.3604435</v>
+        <v>1.3570919</v>
       </c>
       <c r="C94">
-        <v>0.005432061386961839</v>
+        <v>0.004004445730436235</v>
       </c>
     </row>
   </sheetData>

--- a/output/ITAÚ_17329579000133.xlsx
+++ b/output/ITAÚ_17329579000133.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ITAÚ PRIVATE LONG AND SHORT PLUS MULTIMERCADO  FDO DE INVESTIMENTO EM COTAS DE FDOS DE INVESTIMENTO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1041 +383,762 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41364</v>
       </c>
       <c r="B2">
-        <v>0.01702160000000008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41394</v>
       </c>
       <c r="B3">
-        <v>0.03634699999999991</v>
-      </c>
-      <c r="C3">
         <v>0.01900195630063295</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41425</v>
       </c>
       <c r="B4">
-        <v>0.05727780000000005</v>
-      </c>
-      <c r="C4">
         <v>0.02019671017526004</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41455</v>
       </c>
       <c r="B5">
-        <v>0.07053410000000016</v>
-      </c>
-      <c r="C5">
         <v>0.01253814276626275</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41486</v>
       </c>
       <c r="B6">
-        <v>0.07799179999999994</v>
-      </c>
-      <c r="C6">
         <v>0.006966335775758781</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41517</v>
       </c>
       <c r="B7">
-        <v>0.07790019999999998</v>
-      </c>
-      <c r="C7">
         <v>-8.497281704733517e-05</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41547</v>
       </c>
       <c r="B8">
-        <v>0.07765590000000011</v>
-      </c>
-      <c r="C8">
         <v>-0.000226644359097361</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41578</v>
       </c>
       <c r="B9">
-        <v>0.08594519999999983</v>
-      </c>
-      <c r="C9">
         <v>0.007691972920112811</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41608</v>
       </c>
       <c r="B10">
-        <v>0.1035655</v>
-      </c>
-      <c r="C10">
         <v>0.01622577271854975</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41639</v>
       </c>
       <c r="B11">
-        <v>0.1213887</v>
-      </c>
-      <c r="C11">
         <v>0.01615055925543163</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41670</v>
       </c>
       <c r="B12">
-        <v>0.1254554999999999</v>
-      </c>
-      <c r="C12">
         <v>0.003626574799621141</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41698</v>
       </c>
       <c r="B13">
-        <v>0.1236446</v>
-      </c>
-      <c r="C13">
         <v>-0.001609037407520719</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41729</v>
       </c>
       <c r="B14">
-        <v>0.1102951999999999</v>
-      </c>
-      <c r="C14">
         <v>-0.0118804468957534</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41759</v>
       </c>
       <c r="B15">
-        <v>0.1148868999999999</v>
-      </c>
-      <c r="C15">
         <v>0.004135566829434278</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41790</v>
       </c>
       <c r="B16">
-        <v>0.1299309</v>
-      </c>
-      <c r="C16">
         <v>0.01349374541937842</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41820</v>
       </c>
       <c r="B17">
-        <v>0.1450376</v>
-      </c>
-      <c r="C17">
         <v>0.01336957861759513</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41851</v>
       </c>
       <c r="B18">
-        <v>0.1623227</v>
-      </c>
-      <c r="C18">
         <v>0.01509566148744823</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41882</v>
       </c>
       <c r="B19">
-        <v>0.1807748999999998</v>
-      </c>
-      <c r="C19">
         <v>0.01587528145152795</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41912</v>
       </c>
       <c r="B20">
-        <v>0.2176092999999999</v>
-      </c>
-      <c r="C20">
         <v>0.03119510755182886</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41943</v>
       </c>
       <c r="B21">
-        <v>0.2282449</v>
-      </c>
-      <c r="C21">
         <v>0.008734821588501473</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41973</v>
       </c>
       <c r="B22">
-        <v>0.2504193000000001</v>
-      </c>
-      <c r="C22">
         <v>0.01805372853573428</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42004</v>
       </c>
       <c r="B23">
-        <v>0.2834775</v>
-      </c>
-      <c r="C23">
         <v>0.02643769174068233</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42035</v>
       </c>
       <c r="B24">
-        <v>0.2654726999999999</v>
-      </c>
-      <c r="C24">
         <v>-0.01402813839743988</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42063</v>
       </c>
       <c r="B25">
-        <v>0.2585411</v>
-      </c>
-      <c r="C25">
         <v>-0.00547747888990413</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42094</v>
       </c>
       <c r="B26">
-        <v>0.2849816000000001</v>
-      </c>
-      <c r="C26">
         <v>0.02100884905546585</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42124</v>
       </c>
       <c r="B27">
-        <v>0.2698129</v>
-      </c>
-      <c r="C27">
         <v>-0.01180460482858281</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42155</v>
       </c>
       <c r="B28">
-        <v>0.2801168999999999</v>
-      </c>
-      <c r="C28">
         <v>0.008114581289889067</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42185</v>
       </c>
       <c r="B29">
-        <v>0.3160266999999999</v>
-      </c>
-      <c r="C29">
         <v>0.02805196931623977</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42216</v>
       </c>
       <c r="B30">
-        <v>0.3562913000000001</v>
-      </c>
-      <c r="C30">
         <v>0.03059557986171568</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42247</v>
       </c>
       <c r="B31">
-        <v>0.3906776999999999</v>
-      </c>
-      <c r="C31">
         <v>0.025353255602244</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42277</v>
       </c>
       <c r="B32">
-        <v>0.4040648</v>
-      </c>
-      <c r="C32">
         <v>0.009626313846838874</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42308</v>
       </c>
       <c r="B33">
-        <v>0.4012533</v>
-      </c>
-      <c r="C33">
         <v>-0.002002400459010123</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42338</v>
       </c>
       <c r="B34">
-        <v>0.4177706999999999</v>
-      </c>
-      <c r="C34">
         <v>0.01178759043778865</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42369</v>
       </c>
       <c r="B35">
-        <v>0.4393183999999999</v>
-      </c>
-      <c r="C35">
         <v>0.01519829687551022</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42400</v>
       </c>
       <c r="B36">
-        <v>0.4478267</v>
-      </c>
-      <c r="C36">
         <v>0.005911339700791718</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42429</v>
       </c>
       <c r="B37">
-        <v>0.4574859</v>
-      </c>
-      <c r="C37">
         <v>0.006671516694643165</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42460</v>
       </c>
       <c r="B38">
-        <v>0.4688249</v>
-      </c>
-      <c r="C38">
         <v>0.007779835125677703</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42490</v>
       </c>
       <c r="B39">
-        <v>0.4922734</v>
-      </c>
-      <c r="C39">
         <v>0.01596412206791964</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42521</v>
       </c>
       <c r="B40">
-        <v>0.4896315</v>
-      </c>
-      <c r="C40">
         <v>-0.0017703860432009</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42551</v>
       </c>
       <c r="B41">
-        <v>0.5236726</v>
-      </c>
-      <c r="C41">
         <v>0.02285202749807591</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42582</v>
       </c>
       <c r="B42">
-        <v>0.5644723</v>
-      </c>
-      <c r="C42">
         <v>0.02677720922460636</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42613</v>
       </c>
       <c r="B43">
-        <v>0.5807956000000001</v>
-      </c>
-      <c r="C43">
         <v>0.01043374177989609</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42643</v>
       </c>
       <c r="B44">
-        <v>0.6092903000000001</v>
-      </c>
-      <c r="C44">
         <v>0.01802554359336517</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42674</v>
       </c>
       <c r="B45">
-        <v>0.6581115</v>
-      </c>
-      <c r="C45">
         <v>0.03033709952766128</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42704</v>
       </c>
       <c r="B46">
-        <v>0.6655283000000001</v>
-      </c>
-      <c r="C46">
         <v>0.004473040564521913</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42735</v>
       </c>
       <c r="B47">
-        <v>0.6871952000000001</v>
-      </c>
-      <c r="C47">
         <v>0.01300902542454541</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42766</v>
       </c>
       <c r="B48">
-        <v>0.7373062000000001</v>
-      </c>
-      <c r="C48">
         <v>0.02970077202685273</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42794</v>
       </c>
       <c r="B49">
-        <v>0.7621083</v>
-      </c>
-      <c r="C49">
         <v>0.01427618228726746</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42825</v>
       </c>
       <c r="B50">
-        <v>0.7963007999999998</v>
-      </c>
-      <c r="C50">
         <v>0.01940431243641494</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42855</v>
       </c>
       <c r="B51">
-        <v>0.8277812</v>
-      </c>
-      <c r="C51">
         <v>0.01752512719473276</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42886</v>
       </c>
       <c r="B52">
-        <v>0.8332096</v>
-      </c>
-      <c r="C52">
         <v>0.002969939728015625</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42916</v>
       </c>
       <c r="B53">
-        <v>0.8604289000000001</v>
-      </c>
-      <c r="C53">
         <v>0.01484789300688805</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42947</v>
       </c>
       <c r="B54">
-        <v>0.8807950000000002</v>
-      </c>
-      <c r="C54">
         <v>0.01094699184688008</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42978</v>
       </c>
       <c r="B55">
-        <v>0.9126829000000001</v>
-      </c>
-      <c r="C55">
         <v>0.0169544793558043</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43008</v>
       </c>
       <c r="B56">
-        <v>0.9382719000000002</v>
-      </c>
-      <c r="C56">
         <v>0.01337858983316065</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43039</v>
       </c>
       <c r="B57">
-        <v>0.9483329999999999</v>
-      </c>
-      <c r="C57">
         <v>0.005190757808540614</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43069</v>
       </c>
       <c r="B58">
-        <v>0.9474544999999999</v>
-      </c>
-      <c r="C58">
         <v>-0.0004508982807354123</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43100</v>
       </c>
       <c r="B59">
-        <v>0.9516429</v>
-      </c>
-      <c r="C59">
         <v>0.002150704933029379</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43131</v>
       </c>
       <c r="B60">
-        <v>0.9718960999999999</v>
-      </c>
-      <c r="C60">
         <v>0.01037751322232161</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43159</v>
       </c>
       <c r="B61">
-        <v>0.9974792000000001</v>
-      </c>
-      <c r="C61">
         <v>0.0129738580039791</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43190</v>
       </c>
       <c r="B62">
-        <v>1.041343</v>
-      </c>
-      <c r="C62">
         <v>0.02195957785192459</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43220</v>
       </c>
       <c r="B63">
-        <v>1.0949528</v>
-      </c>
-      <c r="C63">
         <v>0.02626202455932192</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43251</v>
       </c>
       <c r="B64">
-        <v>1.093024</v>
-      </c>
-      <c r="C64">
         <v>-0.0009206890007259494</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43281</v>
       </c>
       <c r="B65">
-        <v>1.1515592</v>
-      </c>
-      <c r="C65">
         <v>0.02796680783402383</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43312</v>
       </c>
       <c r="B66">
-        <v>1.1720326</v>
-      </c>
-      <c r="C66">
         <v>0.009515610818424003</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43343</v>
       </c>
       <c r="B67">
-        <v>1.1514757</v>
-      </c>
-      <c r="C67">
         <v>-0.009464360709871666</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43373</v>
       </c>
       <c r="B68">
-        <v>1.143252</v>
-      </c>
-      <c r="C68">
         <v>-0.003822353187628358</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43404</v>
       </c>
       <c r="B69">
-        <v>1.2335054</v>
-      </c>
-      <c r="C69">
         <v>0.04211049377301412</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43434</v>
       </c>
       <c r="B70">
-        <v>1.2537005</v>
-      </c>
-      <c r="C70">
         <v>0.009041885459511345</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43465</v>
       </c>
       <c r="B71">
-        <v>1.3222211</v>
-      </c>
-      <c r="C71">
         <v>0.03040359621875233</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43496</v>
       </c>
       <c r="B72">
-        <v>1.3264014</v>
-      </c>
-      <c r="C72">
         <v>0.00180013005652202</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43524</v>
       </c>
       <c r="B73">
-        <v>1.3411233</v>
-      </c>
-      <c r="C73">
         <v>0.006328185669076669</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43555</v>
       </c>
       <c r="B74">
-        <v>1.3341538</v>
-      </c>
-      <c r="C74">
         <v>-0.002976989721130807</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43585</v>
       </c>
       <c r="B75">
-        <v>1.3475461</v>
-      </c>
-      <c r="C75">
         <v>0.005737539659982804</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43616</v>
       </c>
       <c r="B76">
-        <v>1.3682722</v>
-      </c>
-      <c r="C76">
         <v>0.008828836204750168</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43646</v>
       </c>
       <c r="B77">
-        <v>1.4041367</v>
-      </c>
-      <c r="C77">
         <v>0.01514374065616275</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43677</v>
       </c>
       <c r="B78">
-        <v>1.4482237</v>
-      </c>
-      <c r="C78">
         <v>0.01833797554024286</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43708</v>
       </c>
       <c r="B79">
-        <v>1.4790534</v>
-      </c>
-      <c r="C79">
         <v>0.01259268097110566</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43738</v>
       </c>
       <c r="B80">
-        <v>1.4519076</v>
-      </c>
-      <c r="C80">
         <v>-0.01095006666657539</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43769</v>
       </c>
       <c r="B81">
-        <v>1.4442279</v>
-      </c>
-      <c r="C81">
         <v>-0.003132132711689328</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43799</v>
       </c>
       <c r="B82">
-        <v>1.474265</v>
-      </c>
-      <c r="C82">
         <v>0.01228899318267329</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43830</v>
       </c>
       <c r="B83">
-        <v>1.5398505</v>
-      </c>
-      <c r="C83">
         <v>0.02650706371387068</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43861</v>
       </c>
       <c r="B84">
-        <v>1.6056249</v>
-      </c>
-      <c r="C84">
         <v>0.02589695732091313</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43890</v>
       </c>
       <c r="B85">
-        <v>1.577719</v>
-      </c>
-      <c r="C85">
         <v>-0.0107098684849074</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43921</v>
       </c>
       <c r="B86">
-        <v>1.4349509</v>
-      </c>
-      <c r="C86">
         <v>-0.05538543960765319</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43951</v>
       </c>
       <c r="B87">
-        <v>1.393334</v>
-      </c>
-      <c r="C87">
         <v>-0.01709147400056388</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43982</v>
       </c>
       <c r="B88">
-        <v>1.381004</v>
-      </c>
-      <c r="C88">
         <v>-0.005151809149914088</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>44012</v>
       </c>
       <c r="B89">
-        <v>1.4216989</v>
-      </c>
-      <c r="C89">
         <v>0.01709148745655198</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>44043</v>
       </c>
       <c r="B90">
-        <v>1.4248629</v>
-      </c>
-      <c r="C90">
         <v>0.00130652080652971</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>44074</v>
       </c>
       <c r="B91">
-        <v>1.4252585</v>
-      </c>
-      <c r="C91">
         <v>0.0001631432440984959</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>44104</v>
       </c>
       <c r="B92">
-        <v>1.381908</v>
-      </c>
-      <c r="C92">
         <v>-0.01787458945098008</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>44135</v>
       </c>
       <c r="B93">
-        <v>1.3476907</v>
-      </c>
-      <c r="C93">
         <v>-0.01436550026281447</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>44165</v>
       </c>
       <c r="B94">
-        <v>1.3570919</v>
-      </c>
-      <c r="C94">
-        <v>0.004004445730436235</v>
+        <v>0.002848671675532044</v>
       </c>
     </row>
   </sheetData>
